--- a/biology/Botanique/Jasmin_de_Madagascar/Jasmin_de_Madagascar.xlsx
+++ b/biology/Botanique/Jasmin_de_Madagascar/Jasmin_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephanotis floribunda
 Le Jasmin de Madagascar (Stephanotis floribunda) est une plante de la famille des Asclepiadaceae, ou des Apocynaceae selon la classification phylogénétique.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son pays d'origine, Madagascar, on trouve les Stephanotis dans les sous-bois, essayant de chercher la lumière en s'agrippant aux branches des arbres.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jasmin de Madagascar est une liane volubile, peu ramifiée pouvant mesurer jusqu'à 6 m de long.
 Ses feuilles presque elliptiques sont d'un beau vert foncé luisant.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante fleurit du printemps à l'automne. Cette espèce a besoin d'un support pour pouvoir se développer : on guide ses pousses sur des tuteurs ou un fil. Elle apprécie le plein soleil, mais ne supporte pas les températures trop basses (inférieures à 5 °C). La température idéale se situant entre 18 et 22 °C, dans une atmosphère assez humide
 Le jasmin de Madagascar est utilisé comme plante d'intérieur dans la plupart des zones de rusticité. En été, vaporisez son feuillage régulièrement pour que l'humidité relative autour de la potée se situe aux environs de 50 %. En principe, un arrosage par semaine et de l'engrais liquide tous les quinze jours lui suffisent. En hiver, on supprime les apports de nourriture et ne l'arrose que si la terre du pot est sèche.
